--- a/biology/Médecine/Julius_Scriba/Julius_Scriba.xlsx
+++ b/biology/Médecine/Julius_Scriba/Julius_Scriba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julius Karl Scriba (5 juin 1848 – 3 janvier 1905) est un médecin hessois qui est conseiller étranger au Japon pendant l'ère Meiji. Il contribue ainsi au développement de la médecine occidentale dans l'archipel asiatique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Scriba est né à Darmstadt en grand-duché de Hesse. Ses études de pharmacie et de médecine sont interrompues par un an de service militaire lors de la guerre franco-prussienne de 1870/71. Trois ans après ce conflit, il obtient son diplôme de l'université de Heidelberg et devient médecin à Fribourg-en-Brisgau. Il fait son apprentissage sous la conduite de l'éminent médecin Vincenz Czerny, et, en 1879, il devient maître de conférence à l'université de Fribourg-en-Brisgau. En plus de son travail en médecine, il est un botaniste plutôt doué et publie un ouvrage sur la flore du Grand-duché de Hesse.
 À partir de 1870, le gouvernement de Meiji au Japon commence à recruter des experts en médecine allemands afin de fonder un réseau d'écoles de médecine modernes. À l'époque, la médecine d'Allemagne est considérée comme la plus avancée d'Europe et la plupart des manuels et des articles médicaux sont publiés en allemand. La médecine occidentale est ainsi introduite au Japon pendant la période Edo pour des médecins germanophones comme Engelbert Kaempfer et Philipp Franz von Siebold, et par le médecin allemand Erwin Bälz qui est le médecin personnel de l'empereur Meiji.
